--- a/학습자료/단답형/국어_복습_1일차.xlsx
+++ b/학습자료/단답형/국어_복습_1일차.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
+          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.</t>
+          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
+          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
+          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">

--- a/학습자료/단답형/국어_복습_1일차.xlsx
+++ b/학습자료/단답형/국어_복습_1일차.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
